--- a/Assets/Editor/道具管理.xlsx
+++ b/Assets/Editor/道具管理.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\AmorHero\AmorHero\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\QFrameworkLearnProject\AmorHero\AmorHero\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECBC74F-656F-4598-8DE1-1B119C9862E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3796CD10-8C7C-4BA2-8B5C-243E3B84E106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="2520" windowWidth="19770" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>prop_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,15 +84,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大幅提高佩戴者的生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊效果：每击杀一位敌人+5点攻击力；特殊效果能够被叠加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊效果：每击杀一位敌人恢复5点意能；特殊效果能够被叠加</t>
+    <t>buff_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说是由上古凶兽玄武的鳞甲碎片铸成，散发着生的气息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虔诚带来幸福；背叛带来惩罚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知己知彼，方能百战百胜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,21 +422,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="56.75" customWidth="1"/>
-    <col min="5" max="5" width="58.875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="56.77734375" customWidth="1"/>
+    <col min="5" max="5" width="58.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +452,11 @@
       <c r="E1" t="s">
         <v>14</v>
       </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -463,10 +470,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -480,10 +490,13 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -499,8 +512,11 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -514,10 +530,13 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -531,7 +550,10 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
